--- a/Excel/#ConstValue.xlsx
+++ b/Excel/#ConstValue.xlsx
@@ -56,7 +56,7 @@
     <t>RouterHttpHost</t>
   </si>
   <si>
-    <t>127.0.0.1</t>
+    <t>192.168.31.158</t>
   </si>
   <si>
     <t>路由地址</t>
@@ -1094,7 +1094,7 @@
   <dimension ref="C2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
